--- a/com.ddf/Data.xlsx
+++ b/com.ddf/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Runmode</t>
   </si>
@@ -120,90 +120,9 @@
     <t>appium/selenium</t>
   </si>
   <si>
-    <t>TestA2</t>
-  </si>
-  <si>
     <t>TCID</t>
   </si>
   <si>
-    <t>A2.1</t>
-  </si>
-  <si>
-    <t>A2.2</t>
-  </si>
-  <si>
-    <t>A2.3</t>
-  </si>
-  <si>
-    <t>A2.4</t>
-  </si>
-  <si>
-    <t>A2.5</t>
-  </si>
-  <si>
-    <t>A2.6</t>
-  </si>
-  <si>
-    <t>A2.7</t>
-  </si>
-  <si>
-    <t>A2.8</t>
-  </si>
-  <si>
-    <t>A2.9</t>
-  </si>
-  <si>
-    <t>A2.10</t>
-  </si>
-  <si>
-    <t>A2.11</t>
-  </si>
-  <si>
-    <t>A2.12</t>
-  </si>
-  <si>
-    <t>TestA3</t>
-  </si>
-  <si>
-    <t>A3.1</t>
-  </si>
-  <si>
-    <t>A3.3</t>
-  </si>
-  <si>
-    <t>A3.4</t>
-  </si>
-  <si>
-    <t>A3.5</t>
-  </si>
-  <si>
-    <t>A3.6</t>
-  </si>
-  <si>
-    <t>A3.7</t>
-  </si>
-  <si>
-    <t>A3.8</t>
-  </si>
-  <si>
-    <t>A3.9</t>
-  </si>
-  <si>
-    <t>A3.10</t>
-  </si>
-  <si>
-    <t>A3.11</t>
-  </si>
-  <si>
-    <t>A3.2</t>
-  </si>
-  <si>
-    <t>A3.12</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -220,6 +139,24 @@
   </si>
   <si>
     <t>LoginTestscenarios</t>
+  </si>
+  <si>
+    <t>Contacts_dropdown</t>
+  </si>
+  <si>
+    <t>Contacts_LOV</t>
+  </si>
+  <si>
+    <t>All Contacts,My Contacts,Recently Viewed Contacts</t>
+  </si>
+  <si>
+    <t>createcontacts</t>
+  </si>
+  <si>
+    <t>fnlov</t>
+  </si>
+  <si>
+    <t>--None--,Mr.,Ms.,Mrs.,Dr.,Prof.</t>
   </si>
 </sst>
 </file>
@@ -321,9 +258,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -629,9 +566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -640,8 +579,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>67</v>
+      <c r="A1" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -649,24 +588,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>63</v>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -676,11 +615,11 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>63</v>
+      <c r="B4" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -690,11 +629,11 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>65</v>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -709,7 +648,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,16 +656,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,142 +664,86 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -882,87 +756,48 @@
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1045,10 +880,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +893,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1066,28 +901,30 @@
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>67</v>
+      <c r="A2" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/com.ddf/Data.xlsx
+++ b/com.ddf/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>Runmode</t>
   </si>
@@ -48,9 +48,6 @@
     <t>A7</t>
   </si>
   <si>
-    <t>TestB</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>--None--,Mr.,Ms.,Mrs.,Dr.,Prof.</t>
+  </si>
+  <si>
+    <t>createaccount</t>
   </si>
 </sst>
 </file>
@@ -208,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -244,12 +244,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -261,6 +272,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -568,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +592,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,13 +600,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -602,10 +614,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -616,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -630,10 +642,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -648,7 +660,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -664,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -676,7 +688,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -684,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -692,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -704,7 +716,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -729,21 +741,21 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,10 +774,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +785,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -784,10 +796,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -795,10 +807,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -826,51 +838,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -880,10 +892,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +905,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -902,7 +914,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -911,7 +923,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -920,9 +932,17 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
     </row>

--- a/com.ddf/Data.xlsx
+++ b/com.ddf/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Runmode</t>
   </si>
@@ -60,33 +60,6 @@
     <t>B4</t>
   </si>
   <si>
-    <t>TestC</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -156,7 +129,7 @@
     <t>--None--,Mr.,Ms.,Mrs.,Dr.,Prof.</t>
   </si>
   <si>
-    <t>createaccount</t>
+    <t>createopportunity</t>
   </si>
 </sst>
 </file>
@@ -578,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +565,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -600,13 +573,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -628,10 +601,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -642,10 +615,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -660,7 +633,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -676,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,7 +661,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -704,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,7 +689,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -751,66 +724,6 @@
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -838,51 +751,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -894,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +818,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -914,33 +827,33 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
+      <c r="A5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>5</v>

--- a/com.ddf/Data.xlsx
+++ b/com.ddf/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Runmode</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>createopportunity</t>
+  </si>
+  <si>
+    <t>TestA</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -217,23 +220,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -245,7 +237,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -551,14 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
@@ -724,6 +716,27 @@
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -808,7 +821,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +868,7 @@
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
     </row>

--- a/com.ddf/Data.xlsx
+++ b/com.ddf/Data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7530"/>
+    <workbookView activeTab="2" windowHeight="7530" windowWidth="19440" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="testcases" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" r:id="rId1" sheetId="1"/>
+    <sheet name="Login" r:id="rId2" sheetId="2"/>
+    <sheet name="testcases" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>Runmode</t>
   </si>
@@ -133,12 +133,19 @@
   </si>
   <si>
     <t>TestA</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,28 +229,28 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -260,10 +267,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -298,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,7 +428,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -430,13 +437,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -446,7 +453,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -455,7 +462,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -464,7 +471,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -474,12 +481,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -510,7 +517,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -529,7 +536,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -541,18 +548,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,6 +579,9 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -741,16 +751,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3" display="pranab8485@rediffmail.com"/>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B4"/>
+    <hyperlink display="pranab8485@rediffmail.com" r:id="rId3" ref="B5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -759,7 +769,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,21 +822,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.58203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,7 +847,9 @@
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -863,6 +876,9 @@
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -873,6 +889,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/com.ddf/Data.xlsx
+++ b/com.ddf/Data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="7530" windowWidth="19440" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" r:id="rId1" sheetId="1"/>
-    <sheet name="Login" r:id="rId2" sheetId="2"/>
-    <sheet name="testcases" r:id="rId3" sheetId="3"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="testcases" sheetId="3" r:id="rId3"/>
+    <sheet name="datacreated" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Runmode</t>
   </si>
@@ -24,15 +25,6 @@
     <t>Col1</t>
   </si>
   <si>
-    <t>Col2</t>
-  </si>
-  <si>
-    <t>Col3</t>
-  </si>
-  <si>
-    <t>Col4</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -51,15 +43,6 @@
     <t>B1</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -139,13 +122,27 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>Closedate</t>
+  </si>
+  <si>
+    <t>29/8/2018</t>
+  </si>
+  <si>
+    <t>oppname</t>
+  </si>
+  <si>
+    <t>New opp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,28 +226,28 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -267,10 +264,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -305,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,7 +337,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,7 +425,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -437,13 +434,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -453,7 +450,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -462,7 +459,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -471,7 +468,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -481,12 +478,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -517,7 +514,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -536,7 +533,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -548,23 +545,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,58 +569,58 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,7 +632,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -643,15 +640,15 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,7 +660,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,15 +668,15 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -691,7 +688,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,41 +696,29 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -741,26 +726,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B4"/>
-    <hyperlink display="pranab8485@rediffmail.com" r:id="rId3" ref="B5"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3" display="pranab8485@rediffmail.com"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -769,126 +754,144 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.58203125" collapsed="true"/>
+    <col min="1" max="1" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>